--- a/example_2_folder/example_2_01/main_results.xlsx
+++ b/example_2_folder/example_2_01/main_results.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simva\OneDrive\Documents\1 Master 2\Mémoire\code\memoire_partage_elec\example_2_folder\example_2_01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ACE62C-C35B-4275-A843-797FDE89F6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -151,8 +170,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,13 +208,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -233,7 +260,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -267,6 +294,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -301,9 +329,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -476,64 +505,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BX34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Y30" sqref="Y30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:68">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="W1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Y1" t="s">
         <v>9</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AC1" t="s">
         <v>10</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AE1" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AG1" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AK1" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AO1" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AQ1" t="s">
         <v>15</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AS1" t="s">
         <v>20</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BR1" t="s">
         <v>42</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BV1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:68">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -552,26 +583,11 @@
       <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1</v>
-      </c>
       <c r="Q2" t="s">
         <v>1</v>
       </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
       <c r="S2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U2" t="s">
         <v>1</v>
@@ -591,17 +607,17 @@
       <c r="AC2" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" t="s">
-        <v>2</v>
-      </c>
       <c r="AE2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG2" t="s">
         <v>1</v>
       </c>
+      <c r="AH2" t="s">
+        <v>2</v>
+      </c>
       <c r="AI2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK2" t="s">
         <v>1</v>
@@ -612,91 +628,106 @@
       <c r="AM2" t="s">
         <v>3</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV2" t="s">
         <v>21</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AW2" t="s">
         <v>22</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AX2" t="s">
         <v>23</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AY2" t="s">
         <v>24</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AZ2" t="s">
         <v>25</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BA2" t="s">
         <v>26</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BB2" t="s">
         <v>27</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BC2" t="s">
         <v>28</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BD2" t="s">
         <v>29</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BE2" t="s">
         <v>30</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BF2" t="s">
         <v>31</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BG2" t="s">
         <v>32</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BH2" t="s">
         <v>33</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BI2" t="s">
         <v>34</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BJ2" t="s">
         <v>35</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BK2" t="s">
         <v>36</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BL2" t="s">
         <v>37</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BM2" t="s">
         <v>38</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BN2" t="s">
         <v>39</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BO2" t="s">
         <v>40</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BP2" t="s">
         <v>41</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BR2" t="s">
         <v>1</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BS2" t="s">
         <v>2</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BT2" t="s">
         <v>3</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BV2" t="s">
         <v>1</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BW2" t="s">
         <v>2</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BX2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:68">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1864.528252036149</v>
+        <v>1864.5282520361491</v>
       </c>
       <c r="B3">
         <v>1845.086546989239</v>
@@ -705,7 +736,7 @@
         <v>1859.769201126996</v>
       </c>
       <c r="E3">
-        <v>1514.003421180928</v>
+        <v>1514.0034211809279</v>
       </c>
       <c r="F3">
         <v>1476.02253048544</v>
@@ -714,740 +745,884 @@
         <v>1505.878487982093</v>
       </c>
       <c r="I3">
+        <f>A3-E3</f>
+        <v>350.52483085522113</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:K3" si="0">B3-F3</f>
+        <v>369.06401650379894</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>353.89071314490297</v>
+      </c>
+      <c r="M3">
+        <f>I3/A3</f>
+        <v>0.18799652430711747</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:O3" si="1">J3/B3</f>
+        <v>0.20002531431711285</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>0.19028743616705224</v>
+      </c>
+      <c r="Q3">
         <v>2201.803857509989</v>
       </c>
-      <c r="K3">
-        <v>4064.37240379614</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0.5639523066305266</v>
-      </c>
-      <c r="Q3">
-        <v>0.2581723693646882</v>
-      </c>
-      <c r="R3">
-        <v>0.2773243373556465</v>
-      </c>
       <c r="S3">
-        <v>0.2637498372705843</v>
+        <v>4064.3724037961401</v>
       </c>
       <c r="U3">
-        <v>24002287.33298098</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>55045096.43774974</v>
+        <v>0.56395230663052665</v>
       </c>
       <c r="Y3">
-        <v>5640743.770164843</v>
+        <v>0.25817236936468818</v>
       </c>
       <c r="Z3">
-        <v>5579094.828122382</v>
+        <v>0.27732433735564649</v>
       </c>
       <c r="AA3">
-        <v>5627501.63332074</v>
+        <v>0.26374983727058432</v>
       </c>
       <c r="AC3">
+        <v>24002287.332980979</v>
+      </c>
+      <c r="AE3">
+        <v>55045096.437749743</v>
+      </c>
+      <c r="AG3">
+        <v>5640743.7701648427</v>
+      </c>
+      <c r="AH3">
+        <v>5579094.8281223821</v>
+      </c>
+      <c r="AI3">
+        <v>5627501.6333207404</v>
+      </c>
+      <c r="AK3">
         <v>1456284.184122561</v>
       </c>
-      <c r="AD3">
+      <c r="AL3">
         <v>1547218.776253354</v>
       </c>
-      <c r="AE3">
+      <c r="AM3">
         <v>1484252.640028293</v>
       </c>
-      <c r="AG3">
-        <v>5168.508393521503</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="AO3">
+        <v>5168.5083935215034</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>16</v>
       </c>
-      <c r="AK3">
+      <c r="AS3">
         <v>473946.0101454847</v>
       </c>
-      <c r="AL3">
+      <c r="AT3">
         <v>362224.5565753408</v>
       </c>
-      <c r="AM3">
-        <v>34285.88172696492</v>
-      </c>
-      <c r="AN3">
+      <c r="AU3">
+        <v>34285.881726964923</v>
+      </c>
+      <c r="AV3">
         <v>171993.0586528086</v>
       </c>
-      <c r="AO3">
-        <v>274352.0572760986</v>
-      </c>
-      <c r="AP3">
-        <v>184353.1634936188</v>
-      </c>
-      <c r="AQ3">
+      <c r="AW3">
+        <v>274352.05727609858</v>
+      </c>
+      <c r="AX3">
+        <v>184353.16349361881</v>
+      </c>
+      <c r="AY3">
         <v>448545.6607836085</v>
       </c>
-      <c r="AR3">
-        <v>402927.8713582298</v>
-      </c>
-      <c r="AS3">
-        <v>685152.1733910475</v>
-      </c>
-      <c r="AT3">
-        <v>340208.8740372332</v>
-      </c>
-      <c r="AU3">
-        <v>93225.76846465823</v>
-      </c>
-      <c r="AV3">
-        <v>89190.8365559924</v>
-      </c>
-      <c r="AW3">
-        <v>303030.9862328997</v>
-      </c>
-      <c r="AX3">
+      <c r="AZ3">
+        <v>402927.87135822978</v>
+      </c>
+      <c r="BA3">
+        <v>685152.17339104752</v>
+      </c>
+      <c r="BB3">
+        <v>340208.87403723318</v>
+      </c>
+      <c r="BC3">
+        <v>93225.768464658235</v>
+      </c>
+      <c r="BD3">
+        <v>89190.836555992399</v>
+      </c>
+      <c r="BE3">
+        <v>303030.98623289971</v>
+      </c>
+      <c r="BF3">
         <v>186160.7860642217</v>
       </c>
-      <c r="AY3">
-        <v>440650.0871296216</v>
-      </c>
-      <c r="AZ3">
+      <c r="BG3">
+        <v>440650.08712962159</v>
+      </c>
+      <c r="BH3">
         <v>303431.3064854205</v>
       </c>
-      <c r="BA3">
-        <v>725185.9779478338</v>
-      </c>
-      <c r="BB3">
-        <v>374999.7818968832</v>
-      </c>
-      <c r="BC3">
+      <c r="BI3">
+        <v>725185.97794783383</v>
+      </c>
+      <c r="BJ3">
+        <v>374999.78189688321</v>
+      </c>
+      <c r="BK3">
         <v>607051.6369454402</v>
       </c>
-      <c r="BD3">
-        <v>289586.8083644437</v>
-      </c>
-      <c r="BE3">
-        <v>90452.34660845622</v>
-      </c>
-      <c r="BF3">
-        <v>83142.41868108699</v>
-      </c>
-      <c r="BG3">
-        <v>436079.1538070373</v>
-      </c>
-      <c r="BH3">
-        <v>43604.58374986047</v>
-      </c>
-      <c r="BJ3">
+      <c r="BL3">
+        <v>289586.80836444371</v>
+      </c>
+      <c r="BM3">
+        <v>90452.346608456224</v>
+      </c>
+      <c r="BN3">
+        <v>83142.418681086987</v>
+      </c>
+      <c r="BO3">
+        <v>436079.15380703728</v>
+      </c>
+      <c r="BP3">
+        <v>43604.583749860467</v>
+      </c>
+      <c r="BR3">
         <v>2065500</v>
       </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>1990659.237070155</v>
-      </c>
-      <c r="BO3">
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>1990659.2370701551</v>
+      </c>
+      <c r="BW3">
         <v>1929010.295027684</v>
       </c>
-      <c r="BP3">
-        <v>1977417.100226051</v>
+      <c r="BX3">
+        <v>1977417.1002260509</v>
       </c>
     </row>
-    <row r="4" spans="1:68">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2206.755488551664</v>
+        <v>2206.7554885516638</v>
       </c>
       <c r="B4">
-        <v>2177.767171585013</v>
+        <v>2177.7671715850129</v>
       </c>
       <c r="C4">
-        <v>2199.469153758799</v>
+        <v>2199.4691537587992</v>
       </c>
       <c r="E4">
         <v>1809.576740673873</v>
       </c>
       <c r="F4">
-        <v>1768.433955774461</v>
+        <v>1768.4339557744611</v>
       </c>
       <c r="G4">
-        <v>1807.948184437979</v>
+        <v>1807.9481844379791</v>
       </c>
       <c r="I4">
-        <v>2503.955409587573</v>
+        <f t="shared" ref="I4:I26" si="2">A4-E4</f>
+        <v>397.17874787779078</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J26" si="3">B4-F4</f>
+        <v>409.33321581055179</v>
       </c>
       <c r="K4">
-        <v>4459.954692323647</v>
+        <f t="shared" ref="K4:K26" si="4">C4-G4</f>
+        <v>391.52096932082009</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <f t="shared" ref="M4:M26" si="5">I4/A4</f>
+        <v>0.17998312451846074</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N26" si="6">J4/B4</f>
+        <v>0.18796004511016332</v>
       </c>
       <c r="O4">
-        <v>0.5207758560040853</v>
+        <f t="shared" ref="O4:O26" si="7">K4/C4</f>
+        <v>0.17800702894683812</v>
       </c>
       <c r="Q4">
-        <v>0.2358048591948819</v>
-      </c>
-      <c r="R4">
-        <v>0.2482908173683887</v>
+        <v>2503.9554095875728</v>
       </c>
       <c r="S4">
-        <v>0.2354369470258386</v>
+        <v>4459.9546923236467</v>
       </c>
       <c r="U4">
-        <v>29998897.19408861</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>62598885.23968934</v>
+        <v>0.52077585600408527</v>
       </c>
       <c r="Y4">
+        <v>0.23580485919488189</v>
+      </c>
+      <c r="Z4">
+        <v>0.24829081736838871</v>
+      </c>
+      <c r="AA4">
+        <v>0.23543694702583859</v>
+      </c>
+      <c r="AC4">
+        <v>29998897.194088612</v>
+      </c>
+      <c r="AE4">
+        <v>62598885.239689343</v>
+      </c>
+      <c r="AG4">
         <v>6327344.154196145</v>
       </c>
-      <c r="Z4">
-        <v>6240189.473387096</v>
-      </c>
-      <c r="AA4">
-        <v>6308623.407794974</v>
-      </c>
-      <c r="AC4">
+      <c r="AH4">
+        <v>6240189.4733870961</v>
+      </c>
+      <c r="AI4">
+        <v>6308623.4077949738</v>
+      </c>
+      <c r="AK4">
         <v>1492018.497357781</v>
       </c>
-      <c r="AD4">
+      <c r="AL4">
         <v>1549381.744880897</v>
       </c>
-      <c r="AE4">
-        <v>1485283.03506699</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AM4">
+        <v>1485283.0350669899</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>17</v>
       </c>
-      <c r="AK4">
-        <v>157744.8</v>
-      </c>
-      <c r="AL4">
-        <v>674797.1999999997</v>
-      </c>
-      <c r="AM4">
-        <v>481997.9999999999</v>
-      </c>
-      <c r="AN4">
-        <v>569634.0000000001</v>
-      </c>
-      <c r="AO4">
-        <v>552106.8000000002</v>
-      </c>
-      <c r="AP4">
+      <c r="AS4">
+        <v>157744.79999999999</v>
+      </c>
+      <c r="AT4">
+        <v>674797.19999999972</v>
+      </c>
+      <c r="AU4">
+        <v>481997.99999999988</v>
+      </c>
+      <c r="AV4">
+        <v>569634.00000000012</v>
+      </c>
+      <c r="AW4">
+        <v>552106.80000000016</v>
+      </c>
+      <c r="AX4">
         <v>175272</v>
       </c>
-      <c r="AQ4">
-        <v>552106.8000000002</v>
-      </c>
-      <c r="AR4">
-        <v>990286.8000000002</v>
-      </c>
-      <c r="AS4">
-        <v>411889.2</v>
-      </c>
-      <c r="AT4">
-        <v>832542</v>
-      </c>
-      <c r="AU4">
-        <v>911414.3999999998</v>
-      </c>
-      <c r="AV4">
-        <v>368071.1999999999</v>
-      </c>
-      <c r="AW4">
-        <v>113926.8</v>
-      </c>
-      <c r="AX4">
-        <v>411889.2</v>
-      </c>
       <c r="AY4">
-        <v>701088</v>
+        <v>552106.80000000016</v>
       </c>
       <c r="AZ4">
-        <v>569634.0000000001</v>
+        <v>990286.80000000016</v>
       </c>
       <c r="BA4">
         <v>411889.2</v>
       </c>
       <c r="BB4">
-        <v>315489.6</v>
+        <v>832542</v>
       </c>
       <c r="BC4">
-        <v>692324.3999999999</v>
+        <v>911414.39999999979</v>
       </c>
       <c r="BD4">
+        <v>368071.1999999999</v>
+      </c>
+      <c r="BE4">
+        <v>113926.8</v>
+      </c>
+      <c r="BF4">
+        <v>411889.2</v>
+      </c>
+      <c r="BG4">
+        <v>701088</v>
+      </c>
+      <c r="BH4">
+        <v>569634.00000000012</v>
+      </c>
+      <c r="BI4">
+        <v>411889.2</v>
+      </c>
+      <c r="BJ4">
+        <v>315489.59999999998</v>
+      </c>
+      <c r="BK4">
+        <v>692324.39999999991</v>
+      </c>
+      <c r="BL4">
         <v>376834.8</v>
       </c>
-      <c r="BE4">
-        <v>762433.1999999998</v>
-      </c>
-      <c r="BF4">
+      <c r="BM4">
+        <v>762433.19999999984</v>
+      </c>
+      <c r="BN4">
         <v>657270</v>
       </c>
-      <c r="BG4">
-        <v>674797.1999999998</v>
-      </c>
-      <c r="BH4">
+      <c r="BO4">
+        <v>674797.19999999984</v>
+      </c>
+      <c r="BP4">
         <v>648506.4</v>
       </c>
-      <c r="BJ4">
+      <c r="BR4">
         <v>1518000</v>
       </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>2814245.705740682</v>
-      </c>
-      <c r="BO4">
-        <v>2727091.024931583</v>
-      </c>
-      <c r="BP4">
-        <v>2795524.9593395</v>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>2814245.7057406818</v>
+      </c>
+      <c r="BW4">
+        <v>2727091.0249315831</v>
+      </c>
+      <c r="BX4">
+        <v>2795524.9593394999</v>
       </c>
     </row>
-    <row r="5" spans="1:68">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1456.700317655134</v>
+        <v>1456.7003176551341</v>
       </c>
       <c r="B5">
         <v>1439.483339139274</v>
       </c>
       <c r="C5">
-        <v>1452.372758047835</v>
+        <v>1452.3727580478351</v>
       </c>
       <c r="E5">
-        <v>1168.020009994491</v>
+        <v>1168.0200099944909</v>
       </c>
       <c r="F5">
-        <v>1143.823368427738</v>
+        <v>1143.8233684277379</v>
       </c>
       <c r="G5">
-        <v>1169.143393255032</v>
+        <v>1169.1433932550319</v>
       </c>
       <c r="I5">
+        <f t="shared" si="2"/>
+        <v>288.68030766064317</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>295.65997071153606</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>283.22936479280315</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>0.19817412281843591</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="6"/>
+        <v>0.20539311756697598</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="7"/>
+        <v>0.19501148257111192</v>
+      </c>
+      <c r="Q5">
         <v>2295.762614109557</v>
       </c>
-      <c r="K5">
-        <v>4169.163860495308</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0.5440171194448847</v>
-      </c>
-      <c r="Q5">
-        <v>0.2607729782676846</v>
-      </c>
-      <c r="R5">
-        <v>0.271401084787935</v>
-      </c>
       <c r="S5">
-        <v>0.2580385978316347</v>
+        <v>4169.1638604953077</v>
       </c>
       <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0.54401711944488473</v>
+      </c>
+      <c r="Y5">
+        <v>0.26077297826768459</v>
+      </c>
+      <c r="Z5">
+        <v>0.27140108478793501</v>
+      </c>
+      <c r="AA5">
+        <v>0.25803859783163469</v>
+      </c>
+      <c r="AC5">
         <v>26170711.24631042</v>
       </c>
-      <c r="W5">
-        <v>57394065.35273891</v>
-      </c>
-      <c r="Y5">
+      <c r="AE5">
+        <v>57394065.352738909</v>
+      </c>
+      <c r="AG5">
         <v>4182805.421363682</v>
       </c>
-      <c r="Z5">
+      <c r="AH5">
         <v>4131041.799875306</v>
       </c>
-      <c r="AA5">
-        <v>4171686.64241005</v>
-      </c>
-      <c r="AC5">
+      <c r="AI5">
+        <v>4171686.6424100501</v>
+      </c>
+      <c r="AK5">
         <v>1090762.627243225</v>
       </c>
-      <c r="AD5">
-        <v>1121169.225790461</v>
-      </c>
-      <c r="AE5">
+      <c r="AL5">
+        <v>1121169.2257904611</v>
+      </c>
+      <c r="AM5">
         <v>1076456.171800449</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="s">
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>18</v>
       </c>
-      <c r="AK5">
-        <v>497423.7229491718</v>
-      </c>
-      <c r="AL5">
-        <v>821916.6918804045</v>
-      </c>
-      <c r="AM5">
+      <c r="AS5">
+        <v>497423.72294917179</v>
+      </c>
+      <c r="AT5">
+        <v>821916.69188040448</v>
+      </c>
+      <c r="AU5">
         <v>724108.6922143863</v>
       </c>
-      <c r="AN5">
-        <v>523738.2216186229</v>
-      </c>
-      <c r="AO5">
-        <v>675190.0452471175</v>
-      </c>
-      <c r="AP5">
-        <v>495109.587494552</v>
-      </c>
-      <c r="AQ5">
-        <v>898396.1588308354</v>
-      </c>
-      <c r="AR5">
+      <c r="AV5">
+        <v>523738.22161862289</v>
+      </c>
+      <c r="AW5">
+        <v>675190.04524711752</v>
+      </c>
+      <c r="AX5">
+        <v>495109.58749455202</v>
+      </c>
+      <c r="AY5">
+        <v>898396.15883083537</v>
+      </c>
+      <c r="AZ5">
         <v>810722.640882237</v>
       </c>
-      <c r="AS5">
+      <c r="BA5">
         <v>790798.3513728492</v>
       </c>
-      <c r="AT5">
-        <v>355728.8427574359</v>
-      </c>
-      <c r="AU5">
-        <v>751412.6578309293</v>
-      </c>
-      <c r="AV5">
-        <v>521894.9780935865</v>
-      </c>
-      <c r="AW5">
-        <v>342608.251214737</v>
-      </c>
-      <c r="AX5">
-        <v>594902.8669179688</v>
-      </c>
-      <c r="AY5">
-        <v>359183.5400190023</v>
-      </c>
-      <c r="AZ5">
-        <v>839401.9550692929</v>
-      </c>
-      <c r="BA5">
-        <v>687190.756283268</v>
-      </c>
       <c r="BB5">
-        <v>573254.0305992578</v>
+        <v>355728.84275743592</v>
       </c>
       <c r="BC5">
-        <v>614040.9475296752</v>
+        <v>751412.65783092927</v>
       </c>
       <c r="BD5">
-        <v>824824.6184324648</v>
+        <v>521894.97809358651</v>
       </c>
       <c r="BE5">
-        <v>745145.3462187441</v>
+        <v>342608.25121473701</v>
       </c>
       <c r="BF5">
-        <v>545151.5162471633</v>
+        <v>594902.86691796884</v>
       </c>
       <c r="BG5">
-        <v>396564.9632213269</v>
+        <v>359183.54001900228</v>
       </c>
       <c r="BH5">
+        <v>839401.95506929292</v>
+      </c>
+      <c r="BI5">
+        <v>687190.75628326798</v>
+      </c>
+      <c r="BJ5">
+        <v>573254.03059925779</v>
+      </c>
+      <c r="BK5">
+        <v>614040.94752967521</v>
+      </c>
+      <c r="BL5">
+        <v>824824.61843246478</v>
+      </c>
+      <c r="BM5">
+        <v>745145.34621874406</v>
+      </c>
+      <c r="BN5">
+        <v>545151.51624716329</v>
+      </c>
+      <c r="BO5">
+        <v>396564.96322132688</v>
+      </c>
+      <c r="BP5">
         <v>877212.2602113951</v>
       </c>
-      <c r="BJ5">
+      <c r="BR5">
         <v>821100</v>
       </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BN5">
-        <v>1671459.847422263</v>
-      </c>
-      <c r="BO5">
-        <v>1619696.225933896</v>
-      </c>
-      <c r="BP5">
-        <v>1660341.068468633</v>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>1671459.8474222629</v>
+      </c>
+      <c r="BW5">
+        <v>1619696.2259338959</v>
+      </c>
+      <c r="BX5">
+        <v>1660341.0684686331</v>
       </c>
     </row>
-    <row r="6" spans="1:68">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2080.812301607394</v>
+        <v>2080.8123016073941</v>
       </c>
       <c r="B6">
         <v>2049.987923880492</v>
       </c>
       <c r="C6">
-        <v>2073.064465258066</v>
+        <v>2073.0644652580659</v>
       </c>
       <c r="E6">
-        <v>1723.0061879956</v>
+        <v>1723.0061879955999</v>
       </c>
       <c r="F6">
         <v>1677.288373751009</v>
       </c>
       <c r="G6">
-        <v>1716.498145934817</v>
-      </c>
-      <c r="Q6">
+        <v>1716.4981459348171</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>357.80611361179422</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>372.69955012948299</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>356.56631932324876</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>0.17195501647861017</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="6"/>
+        <v>0.18180572957912225</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="7"/>
+        <v>0.17199962919573827</v>
+      </c>
+      <c r="Y6">
         <v>0.2256343533395026</v>
       </c>
-      <c r="R6">
-        <v>0.2406144084476944</v>
-      </c>
-      <c r="S6">
-        <v>0.2277783375510402</v>
-      </c>
-      <c r="Y6">
-        <v>5967020.558220076</v>
-      </c>
       <c r="Z6">
-        <v>5874345.678025527</v>
+        <v>0.24061440844769441</v>
       </c>
       <c r="AA6">
-        <v>5947114.077996916</v>
-      </c>
-      <c r="AC6">
-        <v>1346364.825017505</v>
-      </c>
-      <c r="AD6">
+        <v>0.22777833755104021</v>
+      </c>
+      <c r="AG6">
+        <v>5967020.5582200764</v>
+      </c>
+      <c r="AH6">
+        <v>5874345.6780255269</v>
+      </c>
+      <c r="AI6">
+        <v>5947114.0779969161</v>
+      </c>
+      <c r="AK6">
+        <v>1346364.8250175051</v>
+      </c>
+      <c r="AL6">
         <v>1413452.210335382</v>
       </c>
-      <c r="AE6">
+      <c r="AM6">
         <v>1354623.757912525</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AQ6" t="s">
         <v>19</v>
       </c>
-      <c r="AK6">
+      <c r="AS6">
         <v>455470</v>
       </c>
-      <c r="AL6">
+      <c r="AT6">
         <v>136160</v>
       </c>
-      <c r="AM6">
+      <c r="AU6">
         <v>449853</v>
       </c>
-      <c r="AN6">
+      <c r="AV6">
         <v>199961</v>
       </c>
-      <c r="AO6">
+      <c r="AW6">
         <v>34024</v>
       </c>
-      <c r="AP6">
+      <c r="AX6">
         <v>26157</v>
       </c>
-      <c r="AQ6">
+      <c r="AY6">
         <v>76762</v>
       </c>
-      <c r="AR6">
+      <c r="AZ6">
         <v>28270</v>
       </c>
-      <c r="AS6">
+      <c r="BA6">
         <v>510121.5</v>
       </c>
-      <c r="AT6">
+      <c r="BB6">
         <v>440478</v>
       </c>
-      <c r="AU6">
+      <c r="BC6">
         <v>253143.5</v>
       </c>
-      <c r="AV6">
-        <v>385212.4444444444</v>
-      </c>
-      <c r="AW6">
+      <c r="BD6">
+        <v>385212.44444444438</v>
+      </c>
+      <c r="BE6">
         <v>201481</v>
       </c>
-      <c r="AX6">
+      <c r="BF6">
         <v>265610</v>
       </c>
-      <c r="AY6">
+      <c r="BG6">
         <v>25766</v>
       </c>
-      <c r="AZ6">
+      <c r="BH6">
         <v>103597</v>
       </c>
-      <c r="BA6">
+      <c r="BI6">
         <v>196378.5</v>
       </c>
-      <c r="BB6">
+      <c r="BJ6">
         <v>247518</v>
       </c>
-      <c r="BC6">
+      <c r="BK6">
         <v>722299.5</v>
       </c>
-      <c r="BD6">
+      <c r="BL6">
         <v>208760</v>
       </c>
-      <c r="BE6">
+      <c r="BM6">
         <v>71868</v>
       </c>
-      <c r="BF6">
+      <c r="BN6">
         <v>203434</v>
       </c>
-      <c r="BG6">
+      <c r="BO6">
         <v>66189</v>
       </c>
-      <c r="BH6">
+      <c r="BP6">
         <v>269249</v>
       </c>
-      <c r="BJ6">
+      <c r="BR6">
         <v>1509200</v>
       </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>2992494.27794865</v>
-      </c>
-      <c r="BO6">
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>2992494.2779486501</v>
+      </c>
+      <c r="BW6">
         <v>2899819.397754123</v>
       </c>
-      <c r="BP6">
-        <v>2972587.7977255</v>
+      <c r="BX6">
+        <v>2972587.7977255001</v>
       </c>
     </row>
-    <row r="7" spans="1:68">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1162.528350933264</v>
+        <v>1162.5283509332639</v>
       </c>
       <c r="B7">
         <v>1151.952563296009</v>
       </c>
       <c r="C7">
-        <v>1160.130938334492</v>
+        <v>1160.1309383344919</v>
       </c>
       <c r="E7">
-        <v>916.7826197356662</v>
+        <v>916.78261973566623</v>
       </c>
       <c r="F7">
-        <v>899.3699309397406</v>
+        <v>899.36993093974058</v>
       </c>
       <c r="G7">
-        <v>919.6163100393799</v>
-      </c>
-      <c r="Q7">
-        <v>0.2908848327930746</v>
-      </c>
-      <c r="R7">
-        <v>0.302317085603059</v>
-      </c>
-      <c r="S7">
-        <v>0.2861150210810174</v>
+        <v>919.61631003937987</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>245.74573119759771</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>252.58263235626839</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>240.51462829511206</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>0.21138902204003537</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="6"/>
+        <v>0.21926478607206679</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="7"/>
+        <v>0.20731679532691358</v>
       </c>
       <c r="Y7">
-        <v>3355607.943401676</v>
+        <v>0.29088483279307459</v>
       </c>
       <c r="Z7">
-        <v>3324582.005249587</v>
+        <v>0.30231708560305898</v>
       </c>
       <c r="AA7">
-        <v>3348943.600022618</v>
-      </c>
-      <c r="AC7">
-        <v>976095.4555355094</v>
-      </c>
-      <c r="AD7">
+        <v>0.28611502108101738</v>
+      </c>
+      <c r="AG7">
+        <v>3355607.9434016761</v>
+      </c>
+      <c r="AH7">
+        <v>3324582.0052495869</v>
+      </c>
+      <c r="AI7">
+        <v>3348943.6000226182</v>
+      </c>
+      <c r="AK7">
+        <v>976095.45553550939</v>
+      </c>
+      <c r="AL7">
         <v>1005077.942675429</v>
       </c>
-      <c r="AE7">
-        <v>958183.0687196099</v>
-      </c>
-      <c r="BJ7">
+      <c r="AM7">
+        <v>958183.06871960987</v>
+      </c>
+      <c r="BR7">
         <v>818100</v>
       </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
         <v>1001835.040878427</v>
       </c>
-      <c r="BO7">
+      <c r="BW7">
         <v>970809.1027263382</v>
       </c>
-      <c r="BP7">
-        <v>995170.6974993675</v>
+      <c r="BX7">
+        <v>995170.69749936752</v>
       </c>
     </row>
-    <row r="8" spans="1:68">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1253.969876073928</v>
+        <v>1253.9698760739279</v>
       </c>
       <c r="B8">
         <v>1241.004235126431</v>
       </c>
       <c r="C8">
-        <v>1251.03071049829</v>
+        <v>1251.0307104982901</v>
       </c>
       <c r="E8">
-        <v>984.5263162229809</v>
+        <v>984.52631622298088</v>
       </c>
       <c r="F8">
-        <v>959.9993107149589</v>
+        <v>959.99931071495894</v>
       </c>
       <c r="G8">
-        <v>977.1554442413953</v>
-      </c>
-      <c r="Q8">
-        <v>0.2964450928407485</v>
-      </c>
-      <c r="R8">
-        <v>0.3131345160570507</v>
-      </c>
-      <c r="S8">
-        <v>0.3029484558677001</v>
+        <v>977.15544424139534</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>269.44355985094705</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>281.00492441147208</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>273.87526625689475</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>0.21487243433195677</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>0.22643349350281941</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="7"/>
+        <v>0.21891969874009665</v>
       </c>
       <c r="Y8">
+        <v>0.29644509284074849</v>
+      </c>
+      <c r="Z8">
+        <v>0.31313451605705073</v>
+      </c>
+      <c r="AA8">
+        <v>0.30294845586770008</v>
+      </c>
+      <c r="AG8">
         <v>3607315.489415789</v>
       </c>
-      <c r="Z8">
-        <v>3569278.495109852</v>
-      </c>
-      <c r="AA8">
-        <v>3599145.177532892</v>
-      </c>
-      <c r="AC8">
-        <v>1069370.975165734</v>
-      </c>
-      <c r="AD8">
-        <v>1117664.294239062</v>
-      </c>
-      <c r="AE8">
-        <v>1090355.473977269</v>
-      </c>
-      <c r="BJ8">
+      <c r="AH8">
+        <v>3569278.4951098519</v>
+      </c>
+      <c r="AI8">
+        <v>3599145.1775328922</v>
+      </c>
+      <c r="AK8">
+        <v>1069370.9751657341</v>
+      </c>
+      <c r="AL8">
+        <v>1117664.2942390619</v>
+      </c>
+      <c r="AM8">
+        <v>1090355.4739772689</v>
+      </c>
+      <c r="BR8">
         <v>1498200</v>
       </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
-        <v>1228223.738427552</v>
-      </c>
-      <c r="BO8">
-        <v>1190186.744121628</v>
-      </c>
-      <c r="BP8">
-        <v>1220053.426544655</v>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>1228223.7384275519</v>
+      </c>
+      <c r="BW8">
+        <v>1190186.7441216281</v>
+      </c>
+      <c r="BX8">
+        <v>1220053.4265446551</v>
       </c>
     </row>
-    <row r="9" spans="1:68">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1432.776259292518</v>
       </c>
@@ -1455,7 +1630,7 @@
         <v>1424.529418393533</v>
       </c>
       <c r="C9">
-        <v>1430.757550769615</v>
+        <v>1430.7575507696149</v>
       </c>
       <c r="E9">
         <v>1119.428450174104</v>
@@ -1464,125 +1639,181 @@
         <v>1096.998612163211</v>
       </c>
       <c r="G9">
-        <v>1117.423761399751</v>
-      </c>
-      <c r="Q9">
-        <v>0.3001001776763949</v>
-      </c>
-      <c r="R9">
-        <v>0.3175369656263659</v>
+        <v>1117.4237613997509</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>313.34780911841403</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>327.53080623032201</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>313.33378936986401</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>0.21869974958486552</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>0.22992210761058504</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="7"/>
+        <v>0.21899852228724531</v>
       </c>
       <c r="S9">
+        <f>AVERAGE(S3:S5)</f>
+        <v>4231.1636522050312</v>
+      </c>
+      <c r="W9">
+        <f>AVERAGE(W3:W5)</f>
+        <v>0.54291509402649885</v>
+      </c>
+      <c r="Y9">
+        <v>0.30010017767639491</v>
+      </c>
+      <c r="Z9">
+        <v>0.31753696562636591</v>
+      </c>
+      <c r="AA9">
         <v>0.3032246872062887</v>
       </c>
-      <c r="Y9">
-        <v>4333264.439783432</v>
-      </c>
-      <c r="Z9">
-        <v>4307114.006198099</v>
-      </c>
-      <c r="AA9">
+      <c r="AG9">
+        <v>4333264.4397834316</v>
+      </c>
+      <c r="AH9">
+        <v>4307114.0061980989</v>
+      </c>
+      <c r="AI9">
         <v>4327647.35036394</v>
       </c>
-      <c r="AC9">
+      <c r="AK9">
         <v>1300413.428297811</v>
       </c>
-      <c r="AD9">
+      <c r="AL9">
         <v>1367667.912134965</v>
       </c>
-      <c r="AE9">
+      <c r="AM9">
         <v>1312249.51415323</v>
       </c>
-      <c r="BJ9">
+      <c r="BR9">
         <v>1513050</v>
       </c>
-      <c r="BK9">
-        <v>0</v>
-      </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BN9">
-        <v>844403.8201691023</v>
-      </c>
-      <c r="BO9">
-        <v>818253.3865837657</v>
-      </c>
-      <c r="BP9">
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>844403.82016910228</v>
+      </c>
+      <c r="BW9">
+        <v>818253.38658376574</v>
+      </c>
+      <c r="BX9">
         <v>838786.7307496072</v>
       </c>
     </row>
-    <row r="10" spans="1:68">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2019.210821876694</v>
+        <v>2019.2108218766939</v>
       </c>
       <c r="B10">
         <v>1995.592750560437</v>
       </c>
       <c r="C10">
-        <v>2013.429456327795</v>
+        <v>2013.4294563277949</v>
       </c>
       <c r="E10">
         <v>1666.32353686273</v>
       </c>
       <c r="F10">
-        <v>1626.20306914164</v>
+        <v>1626.2030691416401</v>
       </c>
       <c r="G10">
         <v>1655.631566143091</v>
       </c>
-      <c r="Q10">
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>352.88728501396395</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>369.38968141879695</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>357.79789018470387</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>0.1747649533127916</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>0.1851027376778446</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="7"/>
+        <v>0.17770569962618687</v>
+      </c>
+      <c r="Y10">
         <v>0.2376342720050682</v>
       </c>
-      <c r="R10">
-        <v>0.2539696936182779</v>
-      </c>
-      <c r="S10">
-        <v>0.2432341921854571</v>
-      </c>
-      <c r="Y10">
-        <v>6158039.644681285</v>
-      </c>
       <c r="Z10">
-        <v>6083147.596570442</v>
+        <v>0.25396969361827793</v>
       </c>
       <c r="AA10">
+        <v>0.24323419218545711</v>
+      </c>
+      <c r="AG10">
+        <v>6158039.6446812851</v>
+      </c>
+      <c r="AH10">
+        <v>6083147.5965704424</v>
+      </c>
+      <c r="AI10">
         <v>6141952.900663265</v>
       </c>
-      <c r="AC10">
+      <c r="AK10">
         <v>1463361.267942186</v>
       </c>
-      <c r="AD10">
-        <v>1544935.131335759</v>
-      </c>
-      <c r="AE10">
-        <v>1493932.952233954</v>
-      </c>
-      <c r="BJ10">
+      <c r="AL10">
+        <v>1544935.1313357591</v>
+      </c>
+      <c r="AM10">
+        <v>1493932.9522339541</v>
+      </c>
+      <c r="BR10">
         <v>1507550</v>
       </c>
-      <c r="BK10">
-        <v>0</v>
-      </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BN10">
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
         <v>2418282.332441106</v>
       </c>
-      <c r="BO10">
-        <v>2343390.284330312</v>
-      </c>
-      <c r="BP10">
-        <v>2402195.588423096</v>
+      <c r="BW10">
+        <v>2343390.2843303122</v>
+      </c>
+      <c r="BX10">
+        <v>2402195.5884230961</v>
       </c>
     </row>
-    <row r="11" spans="1:68">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2034.555203958754</v>
       </c>
       <c r="B11">
-        <v>2018.057286495202</v>
+        <v>2018.0572864952021</v>
       </c>
       <c r="C11">
         <v>2030.516750082681</v>
@@ -1591,123 +1822,171 @@
         <v>1631.420936998376</v>
       </c>
       <c r="F11">
-        <v>1590.764343900244</v>
+        <v>1590.7643439002441</v>
       </c>
       <c r="G11">
         <v>1629.614456569622</v>
       </c>
-      <c r="Q11">
-        <v>0.2715112482216592</v>
-      </c>
-      <c r="R11">
-        <v>0.2921620314886291</v>
-      </c>
-      <c r="S11">
-        <v>0.2727342393014718</v>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>403.134266960378</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>427.29294259495805</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>400.90229351305902</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>0.19814368574319138</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="6"/>
+        <v>0.21173479338490223</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="7"/>
+        <v>0.19743855523316151</v>
       </c>
       <c r="Y11">
-        <v>6148202.559924763</v>
+        <v>0.27151124822165917</v>
       </c>
       <c r="Z11">
-        <v>6095888.261612043</v>
+        <v>0.29216203148862913</v>
       </c>
       <c r="AA11">
-        <v>6136965.496088646</v>
-      </c>
-      <c r="AC11">
+        <v>0.27273423930147178</v>
+      </c>
+      <c r="AG11">
+        <v>6148202.5599247627</v>
+      </c>
+      <c r="AH11">
+        <v>6095888.2616120428</v>
+      </c>
+      <c r="AI11">
+        <v>6136965.4960886464</v>
+      </c>
+      <c r="AK11">
         <v>1669306.151364773</v>
       </c>
-      <c r="AD11">
-        <v>1780987.098240262</v>
-      </c>
-      <c r="AE11">
+      <c r="AL11">
+        <v>1780987.0982402619</v>
+      </c>
+      <c r="AM11">
         <v>1673760.616195116</v>
       </c>
-      <c r="BJ11">
+      <c r="BR11">
         <v>2061000</v>
       </c>
-      <c r="BK11">
-        <v>0</v>
-      </c>
-      <c r="BL11">
-        <v>0</v>
-      </c>
-      <c r="BN11">
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
         <v>1689241.335160943</v>
       </c>
-      <c r="BO11">
-        <v>1636927.036848229</v>
-      </c>
-      <c r="BP11">
-        <v>1678004.27132483</v>
+      <c r="BW11">
+        <v>1636927.0368482289</v>
+      </c>
+      <c r="BX11">
+        <v>1678004.2713248299</v>
       </c>
     </row>
-    <row r="12" spans="1:68">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1820.319715561454</v>
+        <v>1820.3197155614539</v>
       </c>
       <c r="B12">
-        <v>1802.468380286563</v>
+        <v>1802.4683802865629</v>
       </c>
       <c r="C12">
         <v>1815.83270772784</v>
       </c>
       <c r="E12">
-        <v>1452.776581139405</v>
+        <v>1452.7765811394049</v>
       </c>
       <c r="F12">
-        <v>1419.204685512754</v>
+        <v>1419.2046855127539</v>
       </c>
       <c r="G12">
         <v>1450.43141159992</v>
       </c>
-      <c r="Q12">
-        <v>0.2664369669307607</v>
-      </c>
-      <c r="R12">
-        <v>0.2835897710273098</v>
-      </c>
-      <c r="S12">
-        <v>0.2681278779277351</v>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>367.54313442204898</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>383.26369477380899</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>365.40129612791998</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>0.20191130782137637</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="6"/>
+        <v>0.21263268691175394</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="7"/>
+        <v>0.20123070510451832</v>
       </c>
       <c r="Y12">
+        <v>0.26643696693076069</v>
+      </c>
+      <c r="Z12">
+        <v>0.28358977102730981</v>
+      </c>
+      <c r="AA12">
+        <v>0.26812787792773513</v>
+      </c>
+      <c r="AG12">
         <v>5189202.229067537</v>
       </c>
-      <c r="Z12">
-        <v>5135531.385407042</v>
-      </c>
-      <c r="AA12">
-        <v>5177673.780520908</v>
-      </c>
-      <c r="AC12">
+      <c r="AH12">
+        <v>5135531.3854070418</v>
+      </c>
+      <c r="AI12">
+        <v>5177673.7805209076</v>
+      </c>
+      <c r="AK12">
         <v>1382595.302703097</v>
       </c>
-      <c r="AD12">
-        <v>1456384.169691146</v>
-      </c>
-      <c r="AE12">
-        <v>1388278.683373144</v>
-      </c>
-      <c r="BJ12">
+      <c r="AL12">
+        <v>1456384.1696911459</v>
+      </c>
+      <c r="AM12">
+        <v>1388278.6833731439</v>
+      </c>
+      <c r="BR12">
         <v>1487200</v>
       </c>
-      <c r="BK12">
-        <v>0</v>
-      </c>
-      <c r="BL12">
-        <v>0</v>
-      </c>
-      <c r="BN12">
-        <v>1733044.512272582</v>
-      </c>
-      <c r="BO12">
-        <v>1679373.668612091</v>
-      </c>
-      <c r="BP12">
-        <v>1721516.063725951</v>
+      <c r="BS12">
+        <v>0</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>1733044.5122725819</v>
+      </c>
+      <c r="BW12">
+        <v>1679373.6686120911</v>
+      </c>
+      <c r="BX12">
+        <v>1721516.0637259509</v>
       </c>
     </row>
-    <row r="13" spans="1:68">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1461.332732340881</v>
       </c>
@@ -1715,7 +1994,7 @@
         <v>1454.613911456629</v>
       </c>
       <c r="C13">
-        <v>1459.643928591693</v>
+        <v>1459.6439285916931</v>
       </c>
       <c r="E13">
         <v>1107.763802890875</v>
@@ -1726,53 +2005,77 @@
       <c r="G13">
         <v>1105.095618324179</v>
       </c>
-      <c r="Q13">
-        <v>0.3195102205875048</v>
-      </c>
-      <c r="R13">
-        <v>0.34341753580152</v>
-      </c>
-      <c r="S13">
-        <v>0.3233269222292318</v>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>353.56892945000595</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>373.99215245660798</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>354.54831026751413</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>0.24194964064318922</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>0.25710750427383011</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="7"/>
+        <v>0.24290054808750011</v>
       </c>
       <c r="Y13">
-        <v>4167373.339923814</v>
+        <v>0.31951022058750478</v>
       </c>
       <c r="Z13">
-        <v>4147172.902269814</v>
+        <v>0.34341753580152001</v>
       </c>
       <c r="AA13">
-        <v>4163034.304234592</v>
-      </c>
-      <c r="AC13">
+        <v>0.32332692222923182</v>
+      </c>
+      <c r="AG13">
+        <v>4167373.3399238139</v>
+      </c>
+      <c r="AH13">
+        <v>4147172.9022698142</v>
+      </c>
+      <c r="AI13">
+        <v>4163034.3042345918</v>
+      </c>
+      <c r="AK13">
         <v>1331518.375109544</v>
       </c>
-      <c r="AD13">
-        <v>1424211.898640337</v>
-      </c>
-      <c r="AE13">
-        <v>1346021.068722882</v>
-      </c>
-      <c r="BJ13">
+      <c r="AL13">
+        <v>1424211.8986403369</v>
+      </c>
+      <c r="AM13">
+        <v>1346021.0687228821</v>
+      </c>
+      <c r="BR13">
         <v>1505900</v>
       </c>
-      <c r="BK13">
-        <v>0</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BN13">
-        <v>652277.013628206</v>
-      </c>
-      <c r="BO13">
-        <v>632076.5759742087</v>
-      </c>
-      <c r="BP13">
-        <v>647937.9779389811</v>
+      <c r="BS13">
+        <v>0</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
+        <v>652277.01362820598</v>
+      </c>
+      <c r="BW13">
+        <v>632076.57597420865</v>
+      </c>
+      <c r="BX13">
+        <v>647937.97793898114</v>
       </c>
     </row>
-    <row r="14" spans="1:68">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1704.025086444155</v>
       </c>
@@ -1783,63 +2086,87 @@
         <v>1697.002627237096</v>
       </c>
       <c r="E14">
-        <v>1424.491881684955</v>
+        <v>1424.4918816849549</v>
       </c>
       <c r="F14">
         <v>1390.135277352899</v>
       </c>
       <c r="G14">
-        <v>1419.891417720716</v>
-      </c>
-      <c r="Q14">
-        <v>0.2144430001122392</v>
-      </c>
-      <c r="R14">
-        <v>0.2251261233502861</v>
-      </c>
-      <c r="S14">
+        <v>1419.8914177207159</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>279.53320475920009</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>285.95130788776191</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>277.11120951638009</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>0.1640428929027748</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>0.17060652498850684</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="7"/>
+        <v>0.16329450825161487</v>
+      </c>
+      <c r="Y14">
+        <v>0.21444300011223921</v>
+      </c>
+      <c r="Z14">
+        <v>0.22512612335028609</v>
+      </c>
+      <c r="AA14">
         <v>0.215187339094186</v>
       </c>
-      <c r="Y14">
-        <v>4899296.881455013</v>
-      </c>
-      <c r="Z14">
-        <v>4815298.519029403</v>
-      </c>
-      <c r="AA14">
-        <v>4881254.109380282</v>
-      </c>
-      <c r="AC14">
+      <c r="AG14">
+        <v>4899296.8814550126</v>
+      </c>
+      <c r="AH14">
+        <v>4815298.5190294031</v>
+      </c>
+      <c r="AI14">
+        <v>4881254.1093802825</v>
+      </c>
+      <c r="AK14">
         <v>1050619.92169975</v>
       </c>
-      <c r="AD14">
+      <c r="AL14">
         <v>1084049.488363463</v>
       </c>
-      <c r="AE14">
-        <v>1050384.083240104</v>
-      </c>
-      <c r="BJ14">
+      <c r="AM14">
+        <v>1050384.0832401039</v>
+      </c>
+      <c r="BR14">
         <v>822600</v>
       </c>
-      <c r="BK14">
-        <v>0</v>
-      </c>
-      <c r="BL14">
-        <v>0</v>
-      </c>
-      <c r="BN14">
-        <v>2712327.422361241</v>
-      </c>
-      <c r="BO14">
-        <v>2628329.059935624</v>
-      </c>
-      <c r="BP14">
-        <v>2694284.650286508</v>
+      <c r="BS14">
+        <v>0</v>
+      </c>
+      <c r="BT14">
+        <v>0</v>
+      </c>
+      <c r="BV14">
+        <v>2712327.4223612412</v>
+      </c>
+      <c r="BW14">
+        <v>2628329.0599356238</v>
+      </c>
+      <c r="BX14">
+        <v>2694284.6502865078</v>
       </c>
     </row>
-    <row r="15" spans="1:68">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1092.078269305746</v>
+        <v>1092.0782693057461</v>
       </c>
       <c r="B15">
         <v>1077.592645026833</v>
@@ -1848,66 +2175,90 @@
         <v>1088.794540534089</v>
       </c>
       <c r="E15">
-        <v>880.30324546732</v>
+        <v>880.30324546732004</v>
       </c>
       <c r="F15">
-        <v>862.8274737260201</v>
+        <v>862.82747372602012</v>
       </c>
       <c r="G15">
-        <v>877.8387685678002</v>
-      </c>
-      <c r="Q15">
-        <v>0.2671331586583217</v>
-      </c>
-      <c r="R15">
-        <v>0.2752257122323362</v>
-      </c>
-      <c r="S15">
+        <v>877.83876856780023</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>211.77502383842602</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>214.76517130081288</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>210.95577196628881</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>0.19391927281279503</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="6"/>
+        <v>0.19930088822707678</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>0.19375168051706812</v>
+      </c>
+      <c r="Y15">
+        <v>0.26713315865832171</v>
+      </c>
+      <c r="Z15">
+        <v>0.27522571223233622</v>
+      </c>
+      <c r="AA15">
         <v>0.2678265645316969</v>
       </c>
-      <c r="Y15">
-        <v>3148057.457075102</v>
-      </c>
-      <c r="Z15">
+      <c r="AG15">
+        <v>3148057.4570751018</v>
+      </c>
+      <c r="AH15">
         <v>3105561.323606181</v>
       </c>
-      <c r="AA15">
-        <v>3138929.326143786</v>
-      </c>
-      <c r="AC15">
-        <v>840950.532146356</v>
-      </c>
-      <c r="AD15">
-        <v>854730.327170708</v>
-      </c>
-      <c r="AE15">
+      <c r="AI15">
+        <v>3138929.3261437858</v>
+      </c>
+      <c r="AK15">
+        <v>840950.53214635595</v>
+      </c>
+      <c r="AL15">
+        <v>854730.32717070798</v>
+      </c>
+      <c r="AM15">
         <v>840688.6577288846</v>
       </c>
-      <c r="BJ15">
+      <c r="BR15">
         <v>814800</v>
       </c>
-      <c r="BK15">
-        <v>0</v>
-      </c>
-      <c r="BL15">
-        <v>0</v>
-      </c>
-      <c r="BN15">
-        <v>1372210.419627569</v>
-      </c>
-      <c r="BO15">
+      <c r="BS15">
+        <v>0</v>
+      </c>
+      <c r="BT15">
+        <v>0</v>
+      </c>
+      <c r="BV15">
+        <v>1372210.4196275689</v>
+      </c>
+      <c r="BW15">
         <v>1329714.286158642</v>
       </c>
-      <c r="BP15">
-        <v>1363082.288696247</v>
+      <c r="BX15">
+        <v>1363082.2886962469</v>
       </c>
     </row>
-    <row r="16" spans="1:68">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1631.925699990283</v>
       </c>
       <c r="B16">
-        <v>1613.420360756602</v>
+        <v>1613.4203607566019</v>
       </c>
       <c r="C16">
         <v>1627.730746862904</v>
@@ -1916,58 +2267,82 @@
         <v>1301.295804437083</v>
       </c>
       <c r="F16">
-        <v>1275.818659124715</v>
+        <v>1275.8186591247149</v>
       </c>
       <c r="G16">
         <v>1296.950681196686</v>
       </c>
-      <c r="Q16">
-        <v>0.2789556443931103</v>
-      </c>
-      <c r="R16">
-        <v>0.288808434233393</v>
-      </c>
-      <c r="S16">
-        <v>0.2807557701242889</v>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>330.62989555319996</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>337.60170163188695</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>330.78006566621798</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>0.20260107157768803</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>0.20924596580247137</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="7"/>
+        <v>0.20321546810105076</v>
       </c>
       <c r="Y16">
-        <v>4703707.327108048</v>
+        <v>0.27895564439311032</v>
       </c>
       <c r="Z16">
-        <v>4649418.650912923</v>
+        <v>0.28880843423339297</v>
       </c>
       <c r="AA16">
+        <v>0.28075577012428887</v>
+      </c>
+      <c r="AG16">
+        <v>4703707.3271080479</v>
+      </c>
+      <c r="AH16">
+        <v>4649418.6509129228</v>
+      </c>
+      <c r="AI16">
         <v>4692046.168693264</v>
       </c>
-      <c r="AC16">
+      <c r="AK16">
         <v>1312125.70847002</v>
       </c>
-      <c r="AD16">
-        <v>1342791.320665696</v>
-      </c>
-      <c r="AE16">
+      <c r="AL16">
+        <v>1342791.3206656959</v>
+      </c>
+      <c r="AM16">
         <v>1317319.035550196</v>
       </c>
-      <c r="BJ16">
+      <c r="BR16">
         <v>1492150</v>
       </c>
-      <c r="BK16">
-        <v>0</v>
-      </c>
-      <c r="BL16">
-        <v>0</v>
-      </c>
-      <c r="BN16">
+      <c r="BS16">
+        <v>0</v>
+      </c>
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BV16">
         <v>1752994.474125898</v>
       </c>
-      <c r="BO16">
-        <v>1698705.797930762</v>
-      </c>
-      <c r="BP16">
-        <v>1741333.315711114</v>
+      <c r="BW16">
+        <v>1698705.7979307619</v>
+      </c>
+      <c r="BX16">
+        <v>1741333.3157111141</v>
       </c>
     </row>
-    <row r="17" spans="1:68">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1265.729203962775</v>
       </c>
@@ -1981,134 +2356,182 @@
         <v>979.2069392246741</v>
       </c>
       <c r="F17">
-        <v>954.3284173922042</v>
+        <v>954.32841739220419</v>
       </c>
       <c r="G17">
-        <v>975.5192514843582</v>
-      </c>
-      <c r="Q17">
-        <v>0.3114730841746181</v>
-      </c>
-      <c r="R17">
-        <v>0.3337038477079078</v>
-      </c>
-      <c r="S17">
-        <v>0.3158455363517276</v>
+        <v>975.51925148435816</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>286.52226473810094</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>303.62410455180782</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>288.30633211475288</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>0.2263693243713191</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>0.24136372339601009</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>0.22812193063359004</v>
       </c>
       <c r="Y17">
+        <v>0.31147308417461811</v>
+      </c>
+      <c r="Z17">
+        <v>0.33370384770790779</v>
+      </c>
+      <c r="AA17">
+        <v>0.31584553635172757</v>
+      </c>
+      <c r="AG17">
         <v>3823901.321976698</v>
       </c>
-      <c r="Z17">
+      <c r="AH17">
         <v>3799241.745159714</v>
       </c>
-      <c r="AA17">
-        <v>3818604.467239058</v>
-      </c>
-      <c r="AC17">
+      <c r="AI17">
+        <v>3818604.4672390581</v>
+      </c>
+      <c r="AK17">
         <v>1191042.338335481</v>
       </c>
-      <c r="AD17">
-        <v>1267821.588732303</v>
-      </c>
-      <c r="AE17">
-        <v>1206089.176070223</v>
-      </c>
-      <c r="BJ17">
+      <c r="AL17">
+        <v>1267821.5887323029</v>
+      </c>
+      <c r="AM17">
+        <v>1206089.1760702231</v>
+      </c>
+      <c r="BR17">
         <v>1500950</v>
       </c>
-      <c r="BK17">
-        <v>0</v>
-      </c>
-      <c r="BL17">
-        <v>0</v>
-      </c>
-      <c r="BN17">
-        <v>796263.6948281202</v>
-      </c>
-      <c r="BO17">
-        <v>771604.1180111322</v>
-      </c>
-      <c r="BP17">
-        <v>790966.8400904776</v>
+      <c r="BS17">
+        <v>0</v>
+      </c>
+      <c r="BT17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
+        <v>796263.69482812018</v>
+      </c>
+      <c r="BW17">
+        <v>771604.11801113223</v>
+      </c>
+      <c r="BX17">
+        <v>790966.84009047761</v>
       </c>
     </row>
-    <row r="18" spans="1:68">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1801.36820956589</v>
+        <v>1801.3682095658901</v>
       </c>
       <c r="B18">
-        <v>1780.613448186835</v>
+        <v>1780.6134481868351</v>
       </c>
       <c r="C18">
-        <v>1796.28774127507</v>
+        <v>1796.2877412750699</v>
       </c>
       <c r="E18">
         <v>1454.620941418706</v>
       </c>
       <c r="F18">
-        <v>1423.613093878365</v>
+        <v>1423.6130938783649</v>
       </c>
       <c r="G18">
-        <v>1462.95644621354</v>
-      </c>
-      <c r="Q18">
-        <v>0.2620084525899437</v>
-      </c>
-      <c r="R18">
-        <v>0.2744095901898819</v>
-      </c>
-      <c r="S18">
-        <v>0.2541624444573649</v>
+        <v>1462.9564462135399</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>346.74726814718406</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>357.00035430847015</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>333.33129506153</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>0.19249105557977308</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="6"/>
+        <v>0.20049290016988069</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="7"/>
+        <v>0.1855667593794964</v>
       </c>
       <c r="Y18">
-        <v>5476768.893721143</v>
+        <v>0.26200845258994371</v>
       </c>
       <c r="Z18">
-        <v>5410956.297640955</v>
+        <v>0.27440959018988192</v>
       </c>
       <c r="AA18">
-        <v>5462632.407765565</v>
-      </c>
-      <c r="AC18">
+        <v>0.25416244445736491</v>
+      </c>
+      <c r="AG18">
+        <v>5476768.8937211428</v>
+      </c>
+      <c r="AH18">
+        <v>5410956.2976409551</v>
+      </c>
+      <c r="AI18">
+        <v>5462632.4077655654</v>
+      </c>
+      <c r="AK18">
         <v>1434959.743036614</v>
       </c>
-      <c r="AD18">
-        <v>1484818.300171015</v>
-      </c>
-      <c r="AE18">
-        <v>1388396.005929717</v>
-      </c>
-      <c r="BJ18">
+      <c r="AL18">
+        <v>1484818.3001710151</v>
+      </c>
+      <c r="AM18">
+        <v>1388396.0059297171</v>
+      </c>
+      <c r="BR18">
         <v>1535600</v>
       </c>
-      <c r="BK18">
-        <v>0</v>
-      </c>
-      <c r="BL18">
-        <v>0</v>
-      </c>
-      <c r="BN18">
-        <v>2125104.632166594</v>
-      </c>
-      <c r="BO18">
+      <c r="BS18">
+        <v>0</v>
+      </c>
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BV18">
+        <v>2125104.6321665938</v>
+      </c>
+      <c r="BW18">
         <v>2059292.036086411</v>
       </c>
-      <c r="BP18">
+      <c r="BX18">
         <v>2110968.146211023</v>
       </c>
     </row>
-    <row r="19" spans="1:68">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1903.725501270026</v>
+        <v>1903.7255012700259</v>
       </c>
       <c r="B19">
-        <v>1887.180991485004</v>
+        <v>1887.1809914850039</v>
       </c>
       <c r="C19">
-        <v>1899.675642261071</v>
+        <v>1899.6756422610711</v>
       </c>
       <c r="E19">
-        <v>1529.086322557563</v>
+        <v>1529.0863225575631</v>
       </c>
       <c r="F19">
         <v>1490.537541705417</v>
@@ -2116,120 +2539,168 @@
       <c r="G19">
         <v>1516.79048560364</v>
       </c>
-      <c r="Q19">
-        <v>0.2695664354799455</v>
-      </c>
-      <c r="R19">
-        <v>0.2903805433166619</v>
-      </c>
-      <c r="S19">
-        <v>0.2780755823215182</v>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>374.63917871246281</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>396.64344977958694</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>382.88515665743103</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>0.19679264603144259</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="6"/>
+        <v>0.21017774742817444</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="7"/>
+        <v>0.20155291152846785</v>
       </c>
       <c r="Y19">
-        <v>5757656.412443769</v>
+        <v>0.26956643547994552</v>
       </c>
       <c r="Z19">
+        <v>0.29038054331666191</v>
+      </c>
+      <c r="AA19">
+        <v>0.27807558232151819</v>
+      </c>
+      <c r="AG19">
+        <v>5757656.4124437692</v>
+      </c>
+      <c r="AH19">
         <v>5705194.37156842</v>
       </c>
-      <c r="AA19">
-        <v>5746387.613639181</v>
-      </c>
-      <c r="AC19">
+      <c r="AI19">
+        <v>5746387.6136391805</v>
+      </c>
+      <c r="AK19">
         <v>1552070.915820718</v>
       </c>
-      <c r="AD19">
+      <c r="AL19">
         <v>1656677.441343199</v>
       </c>
-      <c r="AE19">
-        <v>1597930.081907875</v>
-      </c>
-      <c r="BJ19">
+      <c r="AM19">
+        <v>1597930.0819078749</v>
+      </c>
+      <c r="BR19">
         <v>2043000</v>
       </c>
-      <c r="BK19">
-        <v>0</v>
-      </c>
-      <c r="BL19">
-        <v>0</v>
-      </c>
-      <c r="BN19">
+      <c r="BS19">
+        <v>0</v>
+      </c>
+      <c r="BT19">
+        <v>0</v>
+      </c>
+      <c r="BV19">
         <v>1694011.978212812</v>
       </c>
-      <c r="BO19">
+      <c r="BW19">
         <v>1641549.937337447</v>
       </c>
-      <c r="BP19">
+      <c r="BX19">
         <v>1682743.179408221</v>
       </c>
     </row>
-    <row r="20" spans="1:68">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1765.298217776759</v>
       </c>
       <c r="B20">
-        <v>1744.471659956054</v>
+        <v>1744.4716599560541</v>
       </c>
       <c r="C20">
-        <v>1760.063375304211</v>
+        <v>1760.0633753042109</v>
       </c>
       <c r="E20">
-        <v>1419.089110520799</v>
+        <v>1419.0891105207991</v>
       </c>
       <c r="F20">
-        <v>1383.591708695037</v>
+        <v>1383.5917086950369</v>
       </c>
       <c r="G20">
         <v>1418.788815311935</v>
       </c>
-      <c r="Q20">
-        <v>0.2586987816417691</v>
-      </c>
-      <c r="R20">
-        <v>0.27505292956467</v>
-      </c>
-      <c r="S20">
-        <v>0.2587576689331378</v>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>346.20910725595991</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>360.87995126101714</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>341.27455999227595</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>0.19611933200271423</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="6"/>
+        <v>0.20687062997062863</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="7"/>
+        <v>0.193899017944902</v>
       </c>
       <c r="Y20">
-        <v>5033546.676814487</v>
+        <v>0.25869878164176913</v>
       </c>
       <c r="Z20">
+        <v>0.27505292956466998</v>
+      </c>
+      <c r="AA20">
+        <v>0.25875766893313779</v>
+      </c>
+      <c r="AG20">
+        <v>5033546.6768144872</v>
+      </c>
+      <c r="AH20">
         <v>4970930.692543909</v>
       </c>
-      <c r="AA20">
-        <v>5020096.820176752</v>
-      </c>
-      <c r="AC20">
-        <v>1302172.392628884</v>
-      </c>
-      <c r="AD20">
-        <v>1367269.049647136</v>
-      </c>
-      <c r="AE20">
+      <c r="AI20">
+        <v>5020096.8201767523</v>
+      </c>
+      <c r="AK20">
+        <v>1302172.3926288839</v>
+      </c>
+      <c r="AL20">
+        <v>1367269.0496471359</v>
+      </c>
+      <c r="AM20">
         <v>1298988.551007594</v>
       </c>
-      <c r="BJ20">
+      <c r="BR20">
         <v>1500400</v>
       </c>
-      <c r="BK20">
-        <v>0</v>
-      </c>
-      <c r="BL20">
-        <v>0</v>
-      </c>
-      <c r="BN20">
-        <v>2021885.264318305</v>
-      </c>
-      <c r="BO20">
-        <v>1959269.280047727</v>
-      </c>
-      <c r="BP20">
+      <c r="BS20">
+        <v>0</v>
+      </c>
+      <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
+        <v>2021885.2643183051</v>
+      </c>
+      <c r="BW20">
+        <v>1959269.2800477271</v>
+      </c>
+      <c r="BX20">
         <v>2008435.407680572</v>
       </c>
     </row>
-    <row r="21" spans="1:68">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1590.722216452452</v>
+        <v>1590.7222164524519</v>
       </c>
       <c r="B21">
         <v>1579.330598596852</v>
@@ -2244,120 +2715,168 @@
         <v>1245.651076298167</v>
       </c>
       <c r="G21">
-        <v>1269.545316704737</v>
-      </c>
-      <c r="Q21">
-        <v>0.266045769840368</v>
-      </c>
-      <c r="R21">
-        <v>0.2834524572237324</v>
-      </c>
-      <c r="S21">
-        <v>0.2672393359549901</v>
+        <v>1269.5453167047369</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>318.6255563304419</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>333.67952229868501</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>318.31356892296708</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>0.20030244943773054</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>0.21127908405950016</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="7"/>
+        <v>0.20046716481177296</v>
       </c>
       <c r="Y21">
-        <v>4554938.282847441</v>
+        <v>0.26604576984036798</v>
       </c>
       <c r="Z21">
-        <v>4520688.870601629</v>
+        <v>0.28345245722373241</v>
       </c>
       <c r="AA21">
-        <v>4547581.540156272</v>
-      </c>
-      <c r="AC21">
+        <v>0.26723933595499011</v>
+      </c>
+      <c r="AG21">
+        <v>4554938.2828474408</v>
+      </c>
+      <c r="AH21">
+        <v>4520688.8706016289</v>
+      </c>
+      <c r="AI21">
+        <v>4547581.5401562722</v>
+      </c>
+      <c r="AK21">
         <v>1211822.062035511</v>
       </c>
-      <c r="AD21">
-        <v>1281400.368716011</v>
-      </c>
-      <c r="AE21">
+      <c r="AL21">
+        <v>1281400.3687160111</v>
+      </c>
+      <c r="AM21">
         <v>1215292.670992533</v>
       </c>
-      <c r="BJ21">
+      <c r="BR21">
         <v>813300</v>
       </c>
-      <c r="BK21">
-        <v>0</v>
-      </c>
-      <c r="BL21">
-        <v>0</v>
-      </c>
-      <c r="BN21">
+      <c r="BS21">
+        <v>0</v>
+      </c>
+      <c r="BT21">
+        <v>0</v>
+      </c>
+      <c r="BV21">
         <v>1105921.798372278</v>
       </c>
-      <c r="BO21">
-        <v>1071672.38612648</v>
-      </c>
-      <c r="BP21">
+      <c r="BW21">
+        <v>1071672.3861264801</v>
+      </c>
+      <c r="BX21">
         <v>1098565.055681108</v>
       </c>
     </row>
-    <row r="22" spans="1:68">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2641.200784568955</v>
       </c>
       <c r="B22">
-        <v>2596.143585474256</v>
+        <v>2596.1435854742558</v>
       </c>
       <c r="C22">
-        <v>2629.875469000943</v>
+        <v>2629.8754690009432</v>
       </c>
       <c r="E22">
-        <v>2241.646012895265</v>
+        <v>2241.6460128952649</v>
       </c>
       <c r="F22">
-        <v>2182.179419383385</v>
+        <v>2182.1794193833848</v>
       </c>
       <c r="G22">
-        <v>2233.457609849376</v>
-      </c>
-      <c r="Q22">
-        <v>0.1973562725625835</v>
-      </c>
-      <c r="R22">
-        <v>0.2102542003383814</v>
-      </c>
-      <c r="S22">
+        <v>2233.4576098493758</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>399.55477167369008</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>413.964166090871</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>396.41785915156743</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>0.15127769687486958</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>0.15945349417769175</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="7"/>
+        <v>0.1507363614073185</v>
+      </c>
+      <c r="Y22">
+        <v>0.19735627256258351</v>
+      </c>
+      <c r="Z22">
+        <v>0.21025420033838141</v>
+      </c>
+      <c r="AA22">
         <v>0.1990511210300614</v>
       </c>
-      <c r="Y22">
-        <v>7596102.210476624</v>
-      </c>
-      <c r="Z22">
-        <v>7460635.711687895</v>
-      </c>
-      <c r="AA22">
+      <c r="AG22">
+        <v>7596102.2104766238</v>
+      </c>
+      <c r="AH22">
+        <v>7460635.7116878945</v>
+      </c>
+      <c r="AI22">
         <v>7567004.129385205</v>
       </c>
-      <c r="AC22">
+      <c r="AK22">
         <v>1499138.418264068</v>
       </c>
-      <c r="AD22">
+      <c r="AL22">
         <v>1568629.99557691</v>
       </c>
-      <c r="AE22">
+      <c r="AM22">
         <v>1506220.654793229</v>
       </c>
-      <c r="BJ22">
+      <c r="BR22">
         <v>1521850</v>
       </c>
-      <c r="BK22">
-        <v>0</v>
-      </c>
-      <c r="BL22">
-        <v>0</v>
-      </c>
-      <c r="BN22">
-        <v>4374245.983679215</v>
-      </c>
-      <c r="BO22">
-        <v>4238779.484890524</v>
-      </c>
-      <c r="BP22">
-        <v>4345147.90258781</v>
+      <c r="BS22">
+        <v>0</v>
+      </c>
+      <c r="BT22">
+        <v>0</v>
+      </c>
+      <c r="BV22">
+        <v>4374245.9836792154</v>
+      </c>
+      <c r="BW22">
+        <v>4238779.4848905243</v>
+      </c>
+      <c r="BX22">
+        <v>4345147.9025878096</v>
       </c>
     </row>
-    <row r="23" spans="1:68">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1123.015093371386</v>
       </c>
@@ -2368,253 +2887,395 @@
         <v>1121.199909546606</v>
       </c>
       <c r="E23">
-        <v>876.3948024696657</v>
+        <v>876.39480246966571</v>
       </c>
       <c r="F23">
-        <v>862.7503727962496</v>
+        <v>862.75037279624962</v>
       </c>
       <c r="G23">
-        <v>875.4630521759126</v>
-      </c>
-      <c r="Q23">
-        <v>0.3020250108055251</v>
-      </c>
-      <c r="R23">
-        <v>0.3119626378906802</v>
-      </c>
-      <c r="S23">
-        <v>0.3023587178819823</v>
+        <v>875.46305217591259</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>246.6202909017203</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>252.25733850693041</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>245.73685737069343</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>0.21960549983468644</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="6"/>
+        <v>0.22623820082114168</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="7"/>
+        <v>0.219173097748523</v>
       </c>
       <c r="Y23">
-        <v>3243531.138063748</v>
+        <v>0.30202501080552507</v>
       </c>
       <c r="Z23">
+        <v>0.31196263789068018</v>
+      </c>
+      <c r="AA23">
+        <v>0.30235871788198232</v>
+      </c>
+      <c r="AG23">
+        <v>3243531.1380637479</v>
+      </c>
+      <c r="AH23">
         <v>3220040.070605739</v>
       </c>
-      <c r="AA23">
-        <v>3238485.278076748</v>
-      </c>
-      <c r="AC23">
-        <v>979627.5270217608</v>
-      </c>
-      <c r="AD23">
+      <c r="AI23">
+        <v>3238485.2780767479</v>
+      </c>
+      <c r="AK23">
+        <v>979627.52702176082</v>
+      </c>
+      <c r="AL23">
         <v>1004532.194539858</v>
       </c>
-      <c r="AE23">
-        <v>979184.2565589604</v>
-      </c>
-      <c r="BJ23">
+      <c r="AM23">
+        <v>979184.25655896042</v>
+      </c>
+      <c r="BR23">
         <v>815100</v>
       </c>
-      <c r="BK23">
-        <v>0</v>
-      </c>
-      <c r="BL23">
-        <v>0</v>
-      </c>
-      <c r="BN23">
-        <v>758532.2452365715</v>
-      </c>
-      <c r="BO23">
-        <v>735041.1777785618</v>
-      </c>
-      <c r="BP23">
-        <v>753486.3852495705</v>
+      <c r="BS23">
+        <v>0</v>
+      </c>
+      <c r="BT23">
+        <v>0</v>
+      </c>
+      <c r="BV23">
+        <v>758532.24523657153</v>
+      </c>
+      <c r="BW23">
+        <v>735041.17777856183</v>
+      </c>
+      <c r="BX23">
+        <v>753486.38524957048</v>
       </c>
     </row>
-    <row r="24" spans="1:68">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1718.698872565004</v>
       </c>
       <c r="B24">
-        <v>1697.826571336309</v>
+        <v>1697.8265713363089</v>
       </c>
       <c r="C24">
-        <v>1713.967355665512</v>
+        <v>1713.9673556655121</v>
       </c>
       <c r="E24">
         <v>1394.721627909368</v>
       </c>
       <c r="F24">
-        <v>1356.847842540439</v>
+        <v>1356.8478425404389</v>
       </c>
       <c r="G24">
-        <v>1385.835230399296</v>
-      </c>
-      <c r="Q24">
-        <v>0.259103588662953</v>
-      </c>
-      <c r="R24">
-        <v>0.27718166730841</v>
-      </c>
-      <c r="S24">
-        <v>0.2641927001175401</v>
+        <v>1385.8352303992961</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>323.97724465563601</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>340.97872879586998</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>328.13212526621601</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>0.18850145876463456</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>0.20083248463209982</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="7"/>
+        <v>0.19144595968037351</v>
       </c>
       <c r="Y24">
-        <v>4958362.632488812</v>
+        <v>0.25910358866295302</v>
       </c>
       <c r="Z24">
+        <v>0.27718166730840998</v>
+      </c>
+      <c r="AA24">
+        <v>0.26419270011754009</v>
+      </c>
+      <c r="AG24">
+        <v>4958362.6324888123</v>
+      </c>
+      <c r="AH24">
         <v>4897130.055850124</v>
       </c>
-      <c r="AA24">
-        <v>4945209.930555857</v>
-      </c>
-      <c r="AC24">
+      <c r="AI24">
+        <v>4945209.9305558568</v>
+      </c>
+      <c r="AK24">
         <v>1284729.551970138</v>
       </c>
-      <c r="AD24">
-        <v>1357394.673906664</v>
-      </c>
-      <c r="AE24">
-        <v>1306488.364201625</v>
-      </c>
-      <c r="BJ24">
+      <c r="AL24">
+        <v>1357394.6739066639</v>
+      </c>
+      <c r="AM24">
+        <v>1306488.3642016251</v>
+      </c>
+      <c r="BR24">
         <v>1492150</v>
       </c>
-      <c r="BK24">
-        <v>0</v>
-      </c>
-      <c r="BL24">
-        <v>0</v>
-      </c>
-      <c r="BN24">
+      <c r="BS24">
+        <v>0</v>
+      </c>
+      <c r="BT24">
+        <v>0</v>
+      </c>
+      <c r="BV24">
         <v>1977214.697560509</v>
       </c>
-      <c r="BO24">
-        <v>1915982.120921834</v>
-      </c>
-      <c r="BP24">
-        <v>1964061.995627554</v>
+      <c r="BW24">
+        <v>1915982.1209218339</v>
+      </c>
+      <c r="BX24">
+        <v>1964061.9956275539</v>
       </c>
     </row>
-    <row r="25" spans="1:68">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1659.09001813658</v>
+        <v>1659.0900181365801</v>
       </c>
       <c r="B25">
         <v>1645.544359587549</v>
       </c>
       <c r="C25">
-        <v>1655.774234954118</v>
+        <v>1655.7742349541179</v>
       </c>
       <c r="E25">
-        <v>1323.21731805255</v>
+        <v>1323.2173180525499</v>
       </c>
       <c r="F25">
-        <v>1280.690574639881</v>
+        <v>1280.6905746398811</v>
       </c>
       <c r="G25">
-        <v>1309.812502296306</v>
-      </c>
-      <c r="Q25">
-        <v>0.2776703641959358</v>
-      </c>
-      <c r="R25">
-        <v>0.3066783211399755</v>
-      </c>
-      <c r="S25">
-        <v>0.2888943355293209</v>
+        <v>1309.8125022963061</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>335.87270008403016</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>364.85378494766792</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>345.96173265781181</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>0.20244392794386662</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>0.22172224213944464</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="7"/>
+        <v>0.2089425752342369</v>
       </c>
       <c r="Y25">
-        <v>5008836.360634129</v>
+        <v>0.27767036419593583</v>
       </c>
       <c r="Z25">
-        <v>4965883.568335263</v>
+        <v>0.30667832113997551</v>
       </c>
       <c r="AA25">
-        <v>4999610.139800264</v>
-      </c>
-      <c r="AC25">
+        <v>0.28889433552932092</v>
+      </c>
+      <c r="AG25">
+        <v>5008836.3606341286</v>
+      </c>
+      <c r="AH25">
+        <v>4965883.5683352631</v>
+      </c>
+      <c r="AI25">
+        <v>4999610.1398002636</v>
+      </c>
+      <c r="AK25">
         <v>1390805.416455124</v>
       </c>
-      <c r="AD25">
-        <v>1522928.835713649</v>
-      </c>
-      <c r="AE25">
+      <c r="AL25">
+        <v>1522928.8357136489</v>
+      </c>
+      <c r="AM25">
         <v>1444359.049243252</v>
       </c>
-      <c r="BJ25">
+      <c r="BR25">
         <v>2048250</v>
       </c>
-      <c r="BK25">
-        <v>0</v>
-      </c>
-      <c r="BL25">
-        <v>0</v>
-      </c>
-      <c r="BN25">
-        <v>1386956.04360586</v>
-      </c>
-      <c r="BO25">
-        <v>1344003.251306977</v>
-      </c>
-      <c r="BP25">
+      <c r="BS25">
+        <v>0</v>
+      </c>
+      <c r="BT25">
+        <v>0</v>
+      </c>
+      <c r="BV25">
+        <v>1386956.0436058601</v>
+      </c>
+      <c r="BW25">
+        <v>1344003.2513069769</v>
+      </c>
+      <c r="BX25">
         <v>1377729.822771996</v>
       </c>
     </row>
-    <row r="26" spans="1:68">
+    <row r="26" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1776.614597484037</v>
+        <v>1776.6145974840369</v>
       </c>
       <c r="B26">
         <v>1756.283402663747</v>
       </c>
       <c r="C26">
-        <v>1771.637812219571</v>
+        <v>1771.6378122195711</v>
       </c>
       <c r="E26">
         <v>1435.788366193231</v>
       </c>
       <c r="F26">
-        <v>1402.143616187163</v>
+        <v>1402.1436161871629</v>
       </c>
       <c r="G26">
         <v>1435.1585906108</v>
       </c>
-      <c r="Q26">
-        <v>0.2612637114648013</v>
-      </c>
-      <c r="R26">
-        <v>0.2764003958683715</v>
-      </c>
-      <c r="S26">
-        <v>0.2608158205026783</v>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>340.82623129080594</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>354.13978647658405</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>336.47922160877101</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>0.19184027406589418</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>0.20164159493818701</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="7"/>
+        <v>0.18992551371841507</v>
       </c>
       <c r="Y26">
-        <v>5414657.393838574</v>
+        <v>0.26126371146480132</v>
       </c>
       <c r="Z26">
-        <v>5350187.911964105</v>
+        <v>0.27640039586837151</v>
       </c>
       <c r="AA26">
-        <v>5400809.407596377</v>
-      </c>
-      <c r="AC26">
-        <v>1414653.487024594</v>
-      </c>
-      <c r="AD26">
-        <v>1478794.056837055</v>
-      </c>
-      <c r="AE26">
+        <v>0.26081582050267832</v>
+      </c>
+      <c r="AG26">
+        <v>5414657.3938385742</v>
+      </c>
+      <c r="AH26">
+        <v>5350187.9119641054</v>
+      </c>
+      <c r="AI26">
+        <v>5400809.4075963767</v>
+      </c>
+      <c r="AK26">
+        <v>1414653.4870245941</v>
+      </c>
+      <c r="AL26">
+        <v>1478794.0568370549</v>
+      </c>
+      <c r="AM26">
         <v>1408616.537020833</v>
       </c>
-      <c r="BJ26">
+      <c r="BR26">
         <v>1494350</v>
       </c>
-      <c r="BK26">
-        <v>0</v>
-      </c>
-      <c r="BL26">
-        <v>0</v>
-      </c>
-      <c r="BN26">
+      <c r="BS26">
+        <v>0</v>
+      </c>
+      <c r="BT26">
+        <v>0</v>
+      </c>
+      <c r="BV26">
         <v>2081735.14987728</v>
       </c>
-      <c r="BO26">
+      <c r="BW26">
         <v>2017265.668002818</v>
       </c>
-      <c r="BP26">
+      <c r="BX26">
         <v>2067887.163635086</v>
+      </c>
+    </row>
+    <row r="29" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="Y29">
+        <f>AVERAGE(Y3:AA26)</f>
+        <v>0.27220727507859915</v>
+      </c>
+    </row>
+    <row r="30" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <f>AVERAGE(I3:I26)</f>
+        <v>326.72472724831937</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30:O30" si="8">AVERAGE(J3:J26)</f>
+        <v>340.75637313481485</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="8"/>
+        <v>326.13610818957278</v>
+      </c>
+      <c r="L30" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="8"/>
+        <v>0.19692277015834247</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="8"/>
+        <v>0.20735865819824958</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="8"/>
+        <v>0.19707954376013301</v>
+      </c>
+    </row>
+    <row r="34" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <f>AVERAGE(I30:K30)</f>
+        <v>331.20573619090231</v>
+      </c>
+      <c r="M34">
+        <f>AVERAGE(M30:O30)</f>
+        <v>0.20045365737224172</v>
       </c>
     </row>
   </sheetData>
